--- a/SuggestedLists/eHistory.07 - Environmental Food Allergies.xlsx
+++ b/SuggestedLists/eHistory.07 - Environmental Food Allergies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="18075" windowHeight="9465"/>
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="155">
-  <si>
-    <t>TTY</t>
-  </si>
-  <si>
-    <t>CodeDescr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="169">
   <si>
     <t>PT</t>
   </si>
@@ -55,33 +49,9 @@
     <t>Castor oil allergy</t>
   </si>
   <si>
-    <t>ALT:  Almond oil allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Aluminum allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Aspartame allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Bee sting</t>
-  </si>
-  <si>
-    <t>ALT:  Caffeine allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Carrot allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Castor oil allergy</t>
-  </si>
-  <si>
     <t>Allergy to cat dander</t>
   </si>
   <si>
-    <t>ALT:  Cat dander allergy</t>
-  </si>
-  <si>
     <t>Cheese allergy</t>
   </si>
   <si>
@@ -94,48 +64,30 @@
     <t>Allergy to cinnamon</t>
   </si>
   <si>
-    <t>ALT:  Cinnamon allergy</t>
-  </si>
-  <si>
     <t>Coal tar allergy</t>
   </si>
   <si>
     <t>Allergy to coconut oil</t>
   </si>
   <si>
-    <t>ALT:  Coconut oil allergy</t>
-  </si>
-  <si>
     <t>Allergy to corn</t>
   </si>
   <si>
-    <t>ALT:  Corn allergy</t>
-  </si>
-  <si>
     <t>Allergy to cosmetic</t>
   </si>
   <si>
-    <t>ALT:  Cosmetic allergy</t>
-  </si>
-  <si>
     <t>Cow's milk protein sensitivity</t>
   </si>
   <si>
     <t>Allergy to dairy product</t>
   </si>
   <si>
-    <t>ALT:  Dairy product allergy</t>
-  </si>
-  <si>
     <t>Dander (animal) allergy</t>
   </si>
   <si>
     <t>Allergy to dog dander</t>
   </si>
   <si>
-    <t>ALT:  Dog dander allergy</t>
-  </si>
-  <si>
     <t>Dust allergy</t>
   </si>
   <si>
@@ -145,21 +97,12 @@
     <t>Allergy to eggs</t>
   </si>
   <si>
-    <t>ALT:  Egg allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Dye allergy</t>
-  </si>
-  <si>
     <t>Feather allergy</t>
   </si>
   <si>
     <t>Allergy to fish</t>
   </si>
   <si>
-    <t>ALT: Fish allergy</t>
-  </si>
-  <si>
     <t>Food allergy</t>
   </si>
   <si>
@@ -169,27 +112,15 @@
     <t>Allergy to fruit</t>
   </si>
   <si>
-    <t>ALT:  Fruit allergy</t>
-  </si>
-  <si>
     <t>Gastrointestinal food allergy</t>
   </si>
   <si>
-    <t>SY:  Gastrointestinal food sensitivity</t>
-  </si>
-  <si>
     <t>Allergy to gauze</t>
   </si>
   <si>
-    <t>ALT:  Gauze allergy</t>
-  </si>
-  <si>
     <t>Gelatin allergy</t>
   </si>
   <si>
-    <t>ALT:  Gelatin allergy</t>
-  </si>
-  <si>
     <t>Glycine allergy</t>
   </si>
   <si>
@@ -199,10 +130,6 @@
     <t>Allergy to grass pollen</t>
   </si>
   <si>
-    <t>ALT:  Grass pollen allergy
-SY:  Allergy to hay</t>
-  </si>
-  <si>
     <t>Guar gum allergy</t>
   </si>
   <si>
@@ -212,9 +139,6 @@
     <t>Allergy to horse dander</t>
   </si>
   <si>
-    <t>ALT:  Horse dander allergy</t>
-  </si>
-  <si>
     <t>House dust allergy</t>
   </si>
   <si>
@@ -224,9 +148,6 @@
     <t>Allergy to legumes</t>
   </si>
   <si>
-    <t>ALT:  Legumes allergy</t>
-  </si>
-  <si>
     <t>Lithium allergy</t>
   </si>
   <si>
@@ -242,55 +163,30 @@
     <t>Allergy to dietary mushroom</t>
   </si>
   <si>
-    <t>ALT:  Mushroom allergy</t>
-  </si>
-  <si>
     <t>Allergy to nickel</t>
   </si>
   <si>
-    <t>ALT:  Nickel allergy</t>
-  </si>
-  <si>
     <t>No known allergies</t>
   </si>
   <si>
-    <t>SY:  NKA - No known allergies</t>
-  </si>
-  <si>
     <t>Allergy to nuts</t>
   </si>
   <si>
-    <t>SY:  Nut allergy</t>
-  </si>
-  <si>
     <t>Allergy to oats</t>
   </si>
   <si>
-    <t>ALT:  Oats allergy</t>
-  </si>
-  <si>
     <t>Olive oil allergy</t>
   </si>
   <si>
     <t>Allergy</t>
   </si>
   <si>
-    <t>ALT:  Other allergy (Not Listed); 
-SY:  Atopic AND/OR hypersensitivity state</t>
-  </si>
-  <si>
-    <t>SY: Cow's milk allergy</t>
-  </si>
-  <si>
     <t>Paraffin allergy</t>
   </si>
   <si>
     <t>Allergy to peanuts</t>
   </si>
   <si>
-    <t>ALT:  Peanut allergy</t>
-  </si>
-  <si>
     <t>Perfume allergy</t>
   </si>
   <si>
@@ -303,90 +199,51 @@
     <t>Allergy to plant</t>
   </si>
   <si>
-    <t>ALT:  Plant allergy</t>
-  </si>
-  <si>
     <t>Allergy to pollen</t>
   </si>
   <si>
-    <t>ALT:  Pollen allergy</t>
-  </si>
-  <si>
     <t>Pollen-food allergy</t>
   </si>
   <si>
-    <t>SY:  Oral allergy syndrome</t>
-  </si>
-  <si>
     <t>Allergy to pork</t>
   </si>
   <si>
-    <t>ALT:  Pork allergy</t>
-  </si>
-  <si>
     <t>Allergy to potato</t>
   </si>
   <si>
-    <t>ALT:  Potato allergy</t>
-  </si>
-  <si>
     <t>Allergy to red meat</t>
   </si>
   <si>
-    <t>ALT:  Red meat allergy</t>
-  </si>
-  <si>
     <t>Allergy to rubber</t>
   </si>
   <si>
-    <t>ALT:  Rubber allergy</t>
-  </si>
-  <si>
     <t>Allergy to rye</t>
   </si>
   <si>
-    <t>ALT:  Rye allergy</t>
-  </si>
-  <si>
     <t>Allergy to scorpion venom</t>
   </si>
   <si>
-    <t>ALT:  Scorpion sting</t>
-  </si>
-  <si>
     <t>Allergy to seafood</t>
   </si>
   <si>
-    <t>SY:  Seafood allergy</t>
-  </si>
-  <si>
     <t>Seasonal allergy</t>
   </si>
   <si>
     <t>Allergy to seed</t>
   </si>
   <si>
-    <t>ALT:  Seed allergy</t>
-  </si>
-  <si>
     <t>Shellfish allergy</t>
   </si>
   <si>
     <t>Allergy to shrimp</t>
   </si>
   <si>
-    <t>ALT:  Shrimp allergy</t>
-  </si>
-  <si>
     <t>Silicone allergy</t>
   </si>
   <si>
     <t>Allergy to spider venom</t>
   </si>
   <si>
-    <t>ALT:  Spider bite</t>
-  </si>
-  <si>
     <t>Sulfur allergy</t>
   </si>
   <si>
@@ -396,9 +253,6 @@
     <t>Allergy to tomato</t>
   </si>
   <si>
-    <t>ALT:  Tomato allergy</t>
-  </si>
-  <si>
     <t>Tryptophan allergy</t>
   </si>
   <si>
@@ -414,27 +268,15 @@
     <t>Allergy to walnuts</t>
   </si>
   <si>
-    <t>ALT:  Walnut allergy</t>
-  </si>
-  <si>
     <t>Allergy to wasp venom</t>
   </si>
   <si>
-    <t>ALT:  Wheat allergy</t>
-  </si>
-  <si>
     <t>Allergy to wood</t>
   </si>
   <si>
-    <t>ALT:  Wood allergy</t>
-  </si>
-  <si>
     <t>Allergy to wool</t>
   </si>
   <si>
-    <t>ALT:  Wool allergy</t>
-  </si>
-  <si>
     <t>Zinc allergy</t>
   </si>
   <si>
@@ -453,38 +295,243 @@
     <t>Alcohol products allergy</t>
   </si>
   <si>
-    <t>ALT:  Wasp allergy</t>
-  </si>
-  <si>
-    <t>Clar:  Peanut oil allergy</t>
-  </si>
-  <si>
-    <t>SY:  Photosensitivity due to sun; Allergy to sunlight</t>
-  </si>
-  <si>
-    <t>ALT:  Mold Allergy</t>
-  </si>
-  <si>
-    <t>ALT:  Strawberry allergy</t>
-  </si>
-  <si>
-    <t>ALT: Dander allergy;  
-SYN:  Allergy to animal; Animal dander allergy</t>
-  </si>
-  <si>
     <t>SNOMED CT Code</t>
   </si>
   <si>
     <t>NEMSIS V3 eHistory.07 Environmental / Food Allergies Suggested List</t>
   </si>
   <si>
-    <t>ALT:  Chemical/Substance Allergy; 
-Clar:  "Substance" covers many concepts including chemicals, pollen, various insect stings, metal, food, etc.  
+    <t xml:space="preserve">
+NEMSIS Version 3 - Environmental / Food Allergies
+Example EMS Descriptor </t>
+  </si>
+  <si>
+    <t>Almond oil allergy</t>
+  </si>
+  <si>
+    <t>Aluminum allergy</t>
+  </si>
+  <si>
+    <t>Aspartame allergy</t>
+  </si>
+  <si>
+    <t>Caffeine allergy</t>
+  </si>
+  <si>
+    <t>Carrot allergy</t>
+  </si>
+  <si>
+    <t>Cat dander allergy</t>
+  </si>
+  <si>
+    <t>Cinnamon allergy</t>
+  </si>
+  <si>
+    <t>Coconut oil allergy</t>
+  </si>
+  <si>
+    <t>Corn allergy</t>
+  </si>
+  <si>
+    <t>Cosmetic allergy</t>
+  </si>
+  <si>
+    <t>Cow's milk allergy</t>
+  </si>
+  <si>
+    <t>Dairy product allergy</t>
+  </si>
+  <si>
+    <t>Animal dander allergy (1);  
+Allergy to animal (2)</t>
+  </si>
+  <si>
+    <t>Dog dander allergy</t>
+  </si>
+  <si>
+    <t>Dye allergy</t>
+  </si>
+  <si>
+    <t>Egg allergy</t>
+  </si>
+  <si>
+    <t>Fish allergy</t>
+  </si>
+  <si>
+    <t>Fruit allergy</t>
+  </si>
+  <si>
+    <t>Gastrointestinal food sensitivity</t>
+  </si>
+  <si>
+    <t>Gauze allergy</t>
+  </si>
+  <si>
+    <t>Grass pollen allergy (1);
+Hay allergy (2)</t>
+  </si>
+  <si>
+    <t>Horse dander allergy</t>
+  </si>
+  <si>
+    <t>Legumes allergy</t>
+  </si>
+  <si>
+    <t>Mold Allergy</t>
+  </si>
+  <si>
+    <t>Mushroom allergy</t>
+  </si>
+  <si>
+    <t>Nickel allergy</t>
+  </si>
+  <si>
+    <t>NKA - No known allergies</t>
+  </si>
+  <si>
+    <t>Nut allergy</t>
+  </si>
+  <si>
+    <t>Oats allergy</t>
+  </si>
+  <si>
+    <t>Peanut allergy</t>
+  </si>
+  <si>
+    <t>Peanut oil allergy</t>
+  </si>
+  <si>
+    <t>Plant allergy</t>
+  </si>
+  <si>
+    <t>Pollen allergy</t>
+  </si>
+  <si>
+    <t>Pork allergy</t>
+  </si>
+  <si>
+    <t>Potato allergy</t>
+  </si>
+  <si>
+    <t>Red meat allergy</t>
+  </si>
+  <si>
+    <t>Rubber allergy</t>
+  </si>
+  <si>
+    <t>Seafood allergy</t>
+  </si>
+  <si>
+    <t>Rye allergy</t>
+  </si>
+  <si>
+    <t>Seed allergy</t>
+  </si>
+  <si>
+    <t>Shrimp allergy</t>
+  </si>
+  <si>
+    <t>Strawberry allergy</t>
+  </si>
+  <si>
+    <t>Photosensitivity due to sun (1); 
+Allergy to sunlight (2)</t>
+  </si>
+  <si>
+    <t>Tomato allergy</t>
+  </si>
+  <si>
+    <t>Walnut allergy</t>
+  </si>
+  <si>
+    <t>Wheat allergy</t>
+  </si>
+  <si>
+    <t>Wood allergy</t>
+  </si>
+  <si>
+    <t>Wool allergy</t>
+  </si>
+  <si>
+    <t>Clar:  "Substance" covers many concepts including chemicals, pollen, various insect stings, metal, food, etc.  
 This could be used to indicate allergy to household chemical cleaners.</t>
   </si>
   <si>
+    <t>Chemical/Substance Allergy</t>
+  </si>
+  <si>
+    <t>Other allergy (Not Listed) (1); 
+Allergic state (2); 
+Atopic AND/OR hypersensitivity state (3)</t>
+  </si>
+  <si>
+    <t>Clar:  This option should only be used when no other appropriate choice is found.
+SYN:  Atopic AND/OR hypersensitivity state; Allergic state.</t>
+  </si>
+  <si>
+    <t>SYN:  Nut allergy.</t>
+  </si>
+  <si>
+    <t>SYN:  NKA - No known allergies.</t>
+  </si>
+  <si>
+    <t>SYN: Cow's milk allergy.</t>
+  </si>
+  <si>
+    <t>SYN:  Allergy to animal; Animal dander allergy.</t>
+  </si>
+  <si>
+    <t>SYN:  Gastrointestinal food sensitivity.</t>
+  </si>
+  <si>
+    <t>Clar:  Peanut oil allergy.</t>
+  </si>
+  <si>
+    <t>SYN:  Photosensitivity due to sun; Allergy to sunlight.</t>
+  </si>
+  <si>
+    <t>SYN:  Oral allergy syndrome.</t>
+  </si>
+  <si>
+    <t>SYN:  Seafood allergy.</t>
+  </si>
+  <si>
+    <t>SNOMED CT Code Description</t>
+  </si>
+  <si>
+    <t>Gluten sensitivity</t>
+  </si>
+  <si>
+    <t>Soy protein sesitivity</t>
+  </si>
+  <si>
+    <t>SYN:  Allergy to hay.</t>
+  </si>
+  <si>
+    <t>Clar: Guam gum is a fiber and used as a laxative. It is also used to treat other medical conditions (diarrhea, diabetes, high cholesterol, and artherosclerosis).</t>
+  </si>
+  <si>
+    <t>Sulfite based food preservative allergy</t>
+  </si>
+  <si>
+    <t>Wasp venom allergy</t>
+  </si>
+  <si>
+    <t>Scorpion venom allergy</t>
+  </si>
+  <si>
+    <t>Bee venom allergy</t>
+  </si>
+  <si>
+    <t>Spider venom allergey</t>
+  </si>
+  <si>
+    <t>TTY Code</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Explanation of Inclusion 
+      <t xml:space="preserve">NEMSIS Version 3 - Environmental / Food Allergies
+Explanation of Inclusion or Clarification
 </t>
     </r>
     <r>
@@ -495,9 +542,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(ALT: alternate EMS description; 
-Clar: Clarification or example of potential use; 
-SY - synonym)</t>
+      <t>Clar: Clarification or example of potential use. 
+SYN: The SNOMED CT synonym for the description.</t>
     </r>
   </si>
 </sst>
@@ -505,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,13 +575,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -571,10 +659,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,9 +681,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -893,82 +995,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>294420000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>418606003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>402306009</v>
@@ -976,1460 +1085,1683 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>403141006</v>
+        <v>232347008</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>419180003</v>
+        <v>403141006</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>424213003</v>
+        <v>419180003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>294434000</v>
+        <v>424213003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>418344001</v>
+        <v>294434000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>420080006</v>
+        <v>418344001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>294318004</v>
+        <v>420080006</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>232346004</v>
+        <v>294318004</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>300914000</v>
+        <v>232346004</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>419199007</v>
+        <v>300914000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>300912001</v>
+        <v>419199007</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>418397007</v>
+        <v>300912001</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>294169006</v>
+        <v>418397007</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>419814004</v>
+        <v>294169006</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>419573007</v>
+        <v>419814004</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>417982003</v>
+        <v>419573007</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>15911003</v>
+        <v>417982003</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>425525006</v>
+        <v>15911003</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>232347008</v>
+        <v>425525006</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>419271008</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>390952000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>418545001</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>91930004</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>426232007</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <v>232348003</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>417532002</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>414285001</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>419421008</v>
+        <v>91932007</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>91932007</v>
+        <v>414314005</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>414314005</v>
+        <v>418968001</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>418968001</v>
+        <v>294847001</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="1">
-        <v>294847001</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>441831003</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>294298002</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>294238000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F39" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>418689008</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>294741005</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>307427009</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>419063004</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>232349006</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>300916003</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>409136006</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>293817009</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>294321002</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>300915004</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>419474003</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>444026000</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>447961002</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
         <v>419788000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>160244002</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
         <v>91934008</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>419342009</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
         <v>294316000</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F57" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
         <v>106190000</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>294324005</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
         <v>91935009</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
         <v>294317009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <v>300908007</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>294619002</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
         <v>258155009</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
         <v>402594000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1">
         <v>300910009</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
         <v>432807008</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <v>417918006</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
         <v>419619007</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1">
         <v>418815008</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
         <v>419412007</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
         <v>418184004</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
         <v>422921000</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
         <v>91937001</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
         <v>444316004</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <v>419101002</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
         <v>300913006</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
         <v>419972009</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>294328008</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="1">
-        <v>427487000</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13">
+        <v>25868003</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>91938006</v>
+        <v>427487000</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>294179008</v>
+        <v>91938006</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>405649006</v>
+        <v>419421008</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>418779002</v>
+        <v>294179008</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>293842000</v>
+        <v>405649006</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>294923007</v>
+        <v>418779002</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>294924001</v>
+        <v>293842000</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>294925000</v>
+        <v>294923007</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>91940001</v>
+        <v>294924001</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>423058007</v>
+        <v>294925000</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>420174000</v>
+        <v>91940001</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>402595004</v>
+        <v>423058007</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
-        <v>425605001</v>
+        <v>420174000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
+        <v>402595004</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>425605001</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
         <v>294950002</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E94" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H95">
+    <sortCondition ref="F16"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SuggestedLists/eHistory.07 - Environmental Food Allergies.xlsx
+++ b/SuggestedLists/eHistory.07 - Environmental Food Allergies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="189">
   <si>
     <t>SNOMED CT Code</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>Sunlight (skin sensitivity to sun)</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>NEMSIS TAC Update 11-08-2016</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -699,6 +705,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,7 +976,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -977,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,1065 +1008,1076 @@
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="2"/>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9">
-        <v>403141006</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9">
-        <v>424213003</v>
+        <v>403141006</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="9">
-        <v>232346004</v>
+        <v>424213003</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9">
-        <v>15911003</v>
+        <v>232346004</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>232347008</v>
+        <v>15911003</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="9">
+        <v>232347008</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="9">
         <v>419271008</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="9">
-        <v>232348003</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="C12" s="9">
-        <v>307427009</v>
+        <v>232348003</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9">
-        <v>419063004</v>
+        <v>307427009</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C14" s="9">
-        <v>422921000</v>
+        <v>419063004</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="9">
-        <v>427487000</v>
+        <v>422921000</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="9">
+        <v>427487000</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="9">
         <v>423058007</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="9">
-        <v>106190000</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C19" s="9">
-        <v>160244002</v>
+        <v>106190000</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9">
+        <v>160244002</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C21" s="9">
         <v>444316004</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="9">
-        <v>390952000</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C23" s="9">
-        <v>426232007</v>
+        <v>390952000</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C24" s="9">
-        <v>418689008</v>
+        <v>426232007</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="9">
-        <v>419474003</v>
+        <v>418689008</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="9">
-        <v>294619002</v>
+        <v>419474003</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C27" s="9">
-        <v>402594000</v>
+        <v>294619002</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C28" s="9">
-        <v>300910009</v>
+        <v>402594000</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="C29" s="9">
-        <v>419101002</v>
+        <v>300910009</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C30" s="9">
-        <v>258155009</v>
+        <v>419101002</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C31" s="9">
-        <v>402595004</v>
+        <v>258155009</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="9">
+        <v>402595004</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>425605001</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="19">
-        <v>409136006</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="19">
-        <v>419342009</v>
+        <v>409136006</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="19">
+        <v>419342009</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C37" s="19">
         <v>420174000</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="19">
-        <v>420080006</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="19">
-        <v>419573007</v>
+        <v>420080006</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C40" s="19">
-        <v>91932007</v>
+        <v>419573007</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C41" s="19">
-        <v>294316000</v>
+        <v>91932007</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C42" s="19">
-        <v>91938006</v>
+        <v>294316000</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="19">
+        <v>91938006</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C44" s="19">
         <v>418779002</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="9">
-        <v>712839001</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="10">
-        <v>712838009</v>
+        <v>175</v>
+      </c>
+      <c r="C46" s="9">
+        <v>712839001</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="19">
-        <v>419814004</v>
+        <v>174</v>
+      </c>
+      <c r="C47" s="10">
+        <v>712838009</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="7"/>
+        <v>183</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="19">
+        <v>419814004</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C49" s="10">
         <v>712840004</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C50" s="9">
         <v>91934008</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="19">
-        <v>91935009</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="19">
+        <v>91935009</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C52" s="19">
         <v>91940001</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="19">
-        <v>417532002</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C54" s="19">
-        <v>300913006</v>
+        <v>417532002</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="19">
+        <v>300913006</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C56" s="19">
         <v>419972009</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="18"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="19">
-        <v>300914000</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="19">
-        <v>300912001</v>
+        <v>300914000</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C59" s="19">
-        <v>418397007</v>
+        <v>300912001</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C60" s="19">
-        <v>425525006</v>
+        <v>418397007</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="19">
-        <v>91930004</v>
+        <v>425525006</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C62" s="19">
-        <v>414285001</v>
+        <v>91930004</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C63" s="19">
-        <v>294847001</v>
+        <v>414285001</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C64" s="19">
-        <v>441831003</v>
+        <v>294847001</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C65" s="19">
-        <v>447961002</v>
+        <v>441831003</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C66" s="19">
-        <v>419619007</v>
+        <v>447961002</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C67" s="19">
-        <v>25868003</v>
+        <v>419619007</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="19">
+        <v>25868003</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C69" s="19">
         <v>419421008</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="18"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="19">
-        <v>417918006</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="19">
+        <v>417918006</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C72" s="19">
         <v>418815008</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="9">
-        <v>294420000</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C74" s="9">
-        <v>419180003</v>
+        <v>294420000</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C75" s="9">
-        <v>294434000</v>
+        <v>419180003</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C76" s="9">
-        <v>418344001</v>
+        <v>294434000</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C77" s="9">
-        <v>294318004</v>
+        <v>418344001</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C78" s="9">
-        <v>418545001</v>
+        <v>294318004</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C79" s="9">
-        <v>294298002</v>
+        <v>418545001</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C80" s="9">
-        <v>293817009</v>
+        <v>294298002</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C81" s="9">
-        <v>294321002</v>
+        <v>293817009</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="9">
+        <v>294321002</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C83" s="9">
         <v>300908007</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C84" s="9">
         <v>293842000</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="9">
-        <v>294923007</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="9">
-        <v>294924001</v>
+        <v>294923007</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="9">
+        <v>294924001</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C87" s="9">
         <v>294925000</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="9">
-        <v>294169006</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C89" s="9">
-        <v>417982003</v>
+        <v>294169006</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C90" s="9">
-        <v>418968001</v>
+        <v>417982003</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C91" s="9">
-        <v>300916003</v>
+        <v>418968001</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C92" s="9">
-        <v>294324005</v>
+        <v>300916003</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="9">
+        <v>294324005</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C94" s="9">
         <v>419412007</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C95" s="9">
         <v>294328008</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" s="9">
-        <v>419199007</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C96" s="9">
-        <v>294179008</v>
+        <v>419199007</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="9">
+        <v>294179008</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C98" s="9">
         <v>405649006</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D98" s="13"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99" s="9">
-        <v>402306009</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C100" s="9">
-        <v>294238000</v>
+        <v>402306009</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C101" s="9">
-        <v>300915004</v>
+        <v>294238000</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C102" s="9">
-        <v>419788000</v>
+        <v>300915004</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="9">
+        <v>419788000</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C104" s="9">
         <v>294950002</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>83</v>
       </c>
     </row>
